--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_ApprenticeshipLog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6D81C4-E021-4059-9435-9C18948A44AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945CF56F-D14D-478C-97EB-3982ACB7215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10792" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10822" uniqueCount="437">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1468,6 +1468,21 @@
   <si>
     <t>27/06/2023</t>
   </si>
+  <si>
+    <t>17/06/2023</t>
+  </si>
+  <si>
+    <t>Data Modelling and Database Design</t>
+  </si>
+  <si>
+    <t>18/07/2023</t>
+  </si>
+  <si>
+    <t>19/07/2023</t>
+  </si>
+  <si>
+    <t>Professional Practice and Portfolio Development 1</t>
+  </si>
 </sst>
 </file>
 
@@ -2270,11 +2285,45 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2301,40 +2350,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4054,25 +4069,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="109"/>
+      <c r="B7" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4094,135 +4109,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="B9" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4244,91 +4259,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -4350,112 +4365,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
@@ -4463,13 +4478,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4479,6 +4487,13 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4493,7 +4508,7 @@
   </sheetPr>
   <dimension ref="A1:AK97"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -10368,7 +10383,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10465,7 +10480,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>110.00000000023283</v>
+        <v>128.50000000029104</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10484,7 +10499,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1432.9999999997672</v>
+        <v>1414.499999999709</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -11196,83 +11211,143 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="82" t="str">
+      <c r="B32" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="36" t="str">
+        <v>239.99999999650754</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3.9999999999417923</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="82" t="str">
+      <c r="B33" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E33" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="82" t="str">
+      <c r="B34" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E34" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I34" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="82" t="str">
+      <c r="B35" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E35" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="36" t="str">
+        <v>390.00000000349246</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>6.5000000000582077</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="82" t="str">
+      <c r="B36" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E36" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="36" t="str">
+        <v>120.00000000349246</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2.0000000000582077</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -13927,7 +14002,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>110.00000000023283</v>
+        <v>128.50000000029104</v>
       </c>
     </row>
   </sheetData>
@@ -77599,12 +77674,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77837,15 +77909,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -77870,10 +77946,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945CF56F-D14D-478C-97EB-3982ACB7215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1429A4F-9A33-437D-BB26-ABF6747525CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10822" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10846" uniqueCount="440">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1483,6 +1483,15 @@
   <si>
     <t>Professional Practice and Portfolio Development 1</t>
   </si>
+  <si>
+    <t>25/07/2023</t>
+  </si>
+  <si>
+    <t>26/07/2023</t>
+  </si>
+  <si>
+    <t>01/08/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -2285,45 +2294,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2350,6 +2325,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4069,25 +4078,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="B7" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4109,135 +4118,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4259,91 +4268,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -4365,112 +4374,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
@@ -4478,6 +4487,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4487,13 +4503,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10383,7 +10392,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10480,7 +10489,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>128.50000000029104</v>
+        <v>143.00000000040745</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10499,7 +10508,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1414.499999999709</v>
+        <v>1399.9999999995925</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -11351,67 +11360,115 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="82" t="str">
+      <c r="B37" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E37" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="36" t="str">
+        <v>210.00000000349246</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3.5000000000582077</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="82" t="str">
+      <c r="B38" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E38" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="36" t="str">
+        <v>210.00000000349246</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3.5000000000582077</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="82" t="str">
+      <c r="B39" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E39" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="36" t="str">
+        <v>210.00000000349246</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3.5000000000582077</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="82" t="str">
+      <c r="B40" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E40" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="36" t="str">
+        <v>239.99999999650754</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I40" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3.9999999999417923</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -14002,7 +14059,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>128.50000000029104</v>
+        <v>143.00000000040745</v>
       </c>
     </row>
   </sheetData>
@@ -77674,9 +77731,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77909,19 +77969,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -77946,9 +78002,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1429A4F-9A33-437D-BB26-ABF6747525CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3BC6B-E429-4A23-866F-0E6ED0DB976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10846" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10870" uniqueCount="444">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1492,6 +1492,18 @@
   <si>
     <t>01/08/2023</t>
   </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>05/08/2023</t>
+  </si>
+  <si>
+    <t>06/08/2023</t>
+  </si>
+  <si>
+    <t>08/08/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -2294,11 +2306,45 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2325,40 +2371,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4078,25 +4090,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="109"/>
+      <c r="B7" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4118,135 +4130,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="B9" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4268,91 +4280,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -4374,112 +4386,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
@@ -4487,13 +4499,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4503,6 +4508,13 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10391,8 +10403,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10489,7 +10501,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>143.00000000040745</v>
+        <v>164.00000000040745</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10508,7 +10520,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1399.9999999995925</v>
+        <v>1378.9999999995925</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -11472,67 +11484,115 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="82" t="str">
+      <c r="B41" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E41" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="82" t="str">
+      <c r="B42" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E42" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="36" t="str">
+        <v>450</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I42" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="82" t="str">
+      <c r="B43" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E43" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="36" t="str">
+        <v>450</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I43" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="82" t="str">
+      <c r="B44" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E44" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -14059,7 +14119,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>143.00000000040745</v>
+        <v>164.00000000040745</v>
       </c>
     </row>
   </sheetData>
@@ -77731,12 +77791,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77969,15 +78026,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78002,10 +78063,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3BC6B-E429-4A23-866F-0E6ED0DB976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79AFC81-CC73-4187-9F7D-374F78CFEAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10870" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10894" uniqueCount="448">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1504,6 +1504,18 @@
   <si>
     <t>08/08/2023</t>
   </si>
+  <si>
+    <t>15/08/2023</t>
+  </si>
+  <si>
+    <t>17/08/2023</t>
+  </si>
+  <si>
+    <t>22/08/2023</t>
+  </si>
+  <si>
+    <t>24/08/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -2306,45 +2318,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2371,6 +2349,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4090,25 +4102,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="B7" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4130,135 +4142,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4280,91 +4292,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -4386,112 +4398,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
@@ -4499,6 +4511,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4508,13 +4527,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10403,8 +10415,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10501,7 +10513,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>164.00000000040745</v>
+        <v>176.00000000040745</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10520,7 +10532,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1378.9999999995925</v>
+        <v>1366.9999999995925</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -11596,67 +11608,115 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="82" t="str">
+      <c r="B45" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="82" t="str">
+      <c r="B46" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E46" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="82" t="str">
+      <c r="B47" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E47" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="82" t="str">
+      <c r="B48" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E48" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -14119,7 +14179,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>164.00000000040745</v>
+        <v>176.00000000040745</v>
       </c>
     </row>
   </sheetData>
@@ -77791,9 +77851,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78026,19 +78089,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78063,9 +78122,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79AFC81-CC73-4187-9F7D-374F78CFEAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BCD63D-18AC-4221-863A-7FB65F826A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10894" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10906" uniqueCount="449">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1516,6 +1516,9 @@
   <si>
     <t>24/08/2023</t>
   </si>
+  <si>
+    <t>29/08/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -2318,11 +2321,45 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2349,40 +2386,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4102,25 +4105,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="109"/>
+      <c r="B7" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4142,135 +4145,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="B9" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4292,91 +4295,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -4398,112 +4401,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
@@ -4511,13 +4514,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4527,6 +4523,13 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10415,8 +10418,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10513,7 +10516,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>176.00000000040745</v>
+        <v>184.50000000034925</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10532,7 +10535,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1366.9999999995925</v>
+        <v>1358.4999999996508</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -11720,35 +11723,59 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="82" t="str">
+      <c r="B49" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E49" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="82" t="str">
+      <c r="B50" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E50" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="36" t="str">
+        <v>329.99999999650754</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I50" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>5.4999999999417923</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -14179,7 +14206,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>176.00000000040745</v>
+        <v>184.50000000034925</v>
       </c>
     </row>
   </sheetData>
@@ -77851,12 +77878,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78089,15 +78113,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78122,10 +78150,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BCD63D-18AC-4221-863A-7FB65F826A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85200EF-3715-4726-BD7F-FFFB7A23E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10906" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10912" uniqueCount="450">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1519,6 +1519,9 @@
   <si>
     <t>29/08/2023</t>
   </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -2321,45 +2324,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2386,6 +2355,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4105,25 +4108,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="B7" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4145,135 +4148,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4295,91 +4298,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -4401,112 +4404,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
@@ -4514,6 +4517,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4523,13 +4533,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10419,7 +10422,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10516,7 +10519,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>184.50000000034925</v>
+        <v>188.50000000046566</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10535,7 +10538,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1358.4999999996508</v>
+        <v>1354.4999999995343</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -11779,19 +11782,31 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="82" t="str">
+      <c r="B51" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E51" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="36" t="str">
+        <v>240.00000000698492</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I51" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4.0000000001164153</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -14206,7 +14221,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>184.50000000034925</v>
+        <v>188.50000000046566</v>
       </c>
     </row>
   </sheetData>
@@ -77878,9 +77893,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78113,19 +78131,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78150,9 +78164,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB08E1D-CE97-47CC-B131-50BAA1BEC36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE34D18A-BC03-4919-999F-DEF641D619D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2025" windowWidth="23040" windowHeight="13485" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11235" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10924" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10936" uniqueCount="453">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1528,6 +1528,9 @@
   <si>
     <t>10/09/2023</t>
   </si>
+  <si>
+    <t>18/09/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -2330,11 +2333,45 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2361,40 +2398,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4114,25 +4117,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="109"/>
+      <c r="B7" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4154,135 +4157,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="B9" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4304,91 +4307,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -4410,112 +4413,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
@@ -4523,13 +4526,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4539,6 +4535,13 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10427,8 +10430,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10525,7 +10528,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>203.50000000046566</v>
+        <v>211.00000000046566</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10544,7 +10547,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1339.4999999995343</v>
+        <v>1331.9999999995343</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -11872,35 +11875,59 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="82" t="str">
+      <c r="B54" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E54" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I54" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="82" t="str">
+      <c r="B55" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E55" s="82">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="36" t="str">
+        <v>270</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I55" s="36">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -14251,7 +14278,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>203.50000000046566</v>
+        <v>211.00000000046566</v>
       </c>
     </row>
   </sheetData>
@@ -77923,12 +77950,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78161,15 +78185,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78194,10 +78222,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3367D974-FD30-4390-99F8-DF4839AD8D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A171290D-E585-4C70-905A-2FD28E757E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11050" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11056" uniqueCount="469">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1576,6 +1576,9 @@
   <si>
     <t>10/11/2023</t>
   </si>
+  <si>
+    <t>11/11/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -2378,45 +2381,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2443,6 +2412,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4162,25 +4165,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4202,135 +4205,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4352,91 +4355,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -4458,112 +4461,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
@@ -4571,6 +4574,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4580,13 +4590,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10475,8 +10478,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10573,7 +10576,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>296.50000000011642</v>
+        <v>305.50000000011642</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10592,7 +10595,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1246.4999999998836</v>
+        <v>1237.4999999998836</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -12508,19 +12511,31 @@
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="82" t="str">
+      <c r="B75" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E75" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="36" t="str">
+        <v>540</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I75" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -14551,7 +14566,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>296.50000000011642</v>
+        <v>305.50000000011642</v>
       </c>
     </row>
   </sheetData>
@@ -78223,9 +78238,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78458,19 +78476,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78495,9 +78509,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A171290D-E585-4C70-905A-2FD28E757E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8246BB6A-5D10-45C5-9CA2-C781FF0BC77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11056" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11116" uniqueCount="475">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1579,6 +1579,24 @@
   <si>
     <t>11/11/2023</t>
   </si>
+  <si>
+    <t>19/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>23/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>25/11/2023</t>
+  </si>
+  <si>
+    <t>29/11/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -2381,11 +2399,45 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2412,40 +2464,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4165,25 +4183,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="109"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4205,135 +4223,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="B9" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4355,91 +4373,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -4461,112 +4479,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
@@ -4574,13 +4592,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4590,6 +4601,13 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10478,8 +10496,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10576,7 +10594,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>305.50000000011642</v>
+        <v>345.50000000005821</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10595,7 +10613,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1237.4999999998836</v>
+        <v>1197.4999999999418</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -12539,163 +12557,283 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="82" t="str">
+      <c r="B76" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E76" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I76" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="82" t="str">
+      <c r="B77" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E77" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I77" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="82" t="str">
+      <c r="B78" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E78" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="36" t="str">
+        <v>270</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I78" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="82" t="str">
+      <c r="B79" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E79" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="36" t="str">
+        <v>239.99999999650754</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I79" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.9999999999417923</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="82" t="str">
+      <c r="B80" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E80" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="36" t="str">
+        <v>270</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I80" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="82" t="str">
+      <c r="B81" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E81" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I81" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="82" t="str">
+      <c r="B82" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E82" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I82" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="82" t="str">
+      <c r="B83" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E83" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="36" t="str">
+        <v>120.00000000349246</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I83" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.0000000000582077</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="82" t="str">
+      <c r="B84" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E84" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="36" t="str">
+        <v>389.99999999301508</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I84" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.4999999998835847</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="82" t="str">
+      <c r="B85" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E85" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="36" t="str">
+        <v>390.00000000349246</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I85" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.5000000000582077</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -14566,7 +14704,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>305.50000000011642</v>
+        <v>345.50000000005821</v>
       </c>
     </row>
   </sheetData>
@@ -78238,12 +78376,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78476,15 +78611,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78509,10 +78648,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8246BB6A-5D10-45C5-9CA2-C781FF0BC77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A42CE8-1B24-4508-8661-84009F98B425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11116" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11146" uniqueCount="480">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1597,6 +1597,21 @@
   <si>
     <t>29/11/2023</t>
   </si>
+  <si>
+    <t>03/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>14/12/2023</t>
+  </si>
+  <si>
+    <t>12/12/2023</t>
+  </si>
+  <si>
+    <t>13/12/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -2399,45 +2414,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2464,6 +2445,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4183,25 +4198,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4223,135 +4238,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4373,91 +4388,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
@@ -4479,112 +4494,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R26" s="2"/>
@@ -4592,6 +4607,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4601,13 +4623,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10496,8 +10511,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10594,7 +10609,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>345.50000000005821</v>
+        <v>380.99999999982538</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10613,7 +10628,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1197.4999999999418</v>
+        <v>1162.0000000001746</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -12837,83 +12852,143 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="82" t="str">
+      <c r="B86" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E86" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="36" t="str">
+        <v>540</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I86" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="82" t="str">
+      <c r="B87" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E87" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="36" t="str">
+        <v>329.99999999650754</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I87" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5.4999999999417923</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="82" t="str">
+      <c r="B88" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E88" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="36" t="str">
+        <v>509.99999999650754</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I88" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.4999999999417923</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="82" t="str">
+      <c r="B89" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E89" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="36" t="str">
+        <v>360</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I89" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="82" t="str">
+      <c r="B90" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E90" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="36" t="str">
+        <v>389.99999999301508</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I90" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.4999999998835847</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -14704,7 +14779,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>345.50000000005821</v>
+        <v>380.99999999982538</v>
       </c>
     </row>
   </sheetData>
@@ -78376,9 +78451,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78611,19 +78689,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78648,9 +78722,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11C256B-710C-4AD6-993B-A9B8354CA446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE18C1F-E126-4495-BF32-FA036173A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1650" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11170" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11188" uniqueCount="486">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1624,6 +1624,12 @@
   <si>
     <t>17/01/2024</t>
   </si>
+  <si>
+    <t>23/01/2024</t>
+  </si>
+  <si>
+    <t>24/01/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -2426,45 +2432,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2491,6 +2463,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3685,9 +3691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>322899</xdr:colOff>
+      <xdr:colOff>326709</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>56039</xdr:rowOff>
+      <xdr:rowOff>59849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3734,9 +3740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2074547</xdr:colOff>
+      <xdr:colOff>2078357</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>98584</xdr:rowOff>
+      <xdr:rowOff>94774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3790,9 +3796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>327184</xdr:colOff>
+      <xdr:colOff>323374</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>131850</xdr:rowOff>
+      <xdr:rowOff>135660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3833,9 +3839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1579563</xdr:colOff>
+      <xdr:colOff>1583373</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>136295</xdr:rowOff>
+      <xdr:rowOff>132485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3876,9 +3882,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>855219</xdr:colOff>
+      <xdr:colOff>859029</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>22066</xdr:rowOff>
+      <xdr:rowOff>18256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4210,25 +4216,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4250,135 +4256,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4400,91 +4406,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4506,112 +4512,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4619,6 +4625,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4628,13 +4641,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10524,7 +10530,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10621,7 +10627,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>399.99999999976717</v>
+        <v>412.49999999982538</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10640,7 +10646,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1143.0000000002328</v>
+        <v>1130.5000000001746</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -13116,51 +13122,87 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="82" t="str">
+      <c r="B95" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E95" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="36" t="str">
+        <v>480.00000000349246</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I95" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.0000000000582077</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="82" t="str">
+      <c r="B96" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E96" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I96" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="82" t="str">
+      <c r="B97" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E97" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="36" t="str">
+        <v>90</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I97" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
@@ -14839,7 +14881,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>399.99999999976717</v>
+        <v>412.49999999982538</v>
       </c>
     </row>
   </sheetData>
@@ -78511,9 +78553,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78746,19 +78791,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78783,9 +78824,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE18C1F-E126-4495-BF32-FA036173A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4822B6-35F4-4D2A-B97C-09085E5838FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1650" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11188" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11206" uniqueCount="488">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1630,6 +1630,12 @@
   <si>
     <t>24/01/2024</t>
   </si>
+  <si>
+    <t>31/01/2024</t>
+  </si>
+  <si>
+    <t>04/02/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -2432,11 +2438,45 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2463,40 +2503,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4216,25 +4222,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="109"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4256,135 +4262,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="B9" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4406,91 +4412,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4512,112 +4518,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4625,13 +4631,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4641,6 +4640,13 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10529,8 +10535,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10627,7 +10633,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>412.49999999982538</v>
+        <v>422.49999999976717</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10646,7 +10652,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1130.5000000001746</v>
+        <v>1120.5000000002328</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -13206,51 +13212,87 @@
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="82" t="str">
+      <c r="B98" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E98" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="36" t="str">
+        <v>239.99999999650754</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I98" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.9999999999417923</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="82" t="str">
+      <c r="B99" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E99" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I99" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="82" t="str">
+      <c r="B100" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E100" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I100" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
@@ -14881,7 +14923,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>412.49999999982538</v>
+        <v>422.49999999976717</v>
       </c>
     </row>
   </sheetData>
@@ -78553,12 +78595,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78791,15 +78830,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78824,10 +78867,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4822B6-35F4-4D2A-B97C-09085E5838FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42835DD-1C5C-4AE0-A6C1-F536F4ADE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11206" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11224" uniqueCount="491">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1636,6 +1636,15 @@
   <si>
     <t>04/02/2024</t>
   </si>
+  <si>
+    <t>07/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>11/02/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -2438,45 +2447,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2503,6 +2478,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3697,9 +3706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>326709</xdr:colOff>
+      <xdr:colOff>322899</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>59849</xdr:rowOff>
+      <xdr:rowOff>56039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3746,9 +3755,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2078357</xdr:colOff>
+      <xdr:colOff>2074547</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>94774</xdr:rowOff>
+      <xdr:rowOff>98584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3802,9 +3811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323374</xdr:colOff>
+      <xdr:colOff>327184</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>135660</xdr:rowOff>
+      <xdr:rowOff>131850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3845,9 +3854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1583373</xdr:colOff>
+      <xdr:colOff>1579563</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>132485</xdr:rowOff>
+      <xdr:rowOff>136295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3888,9 +3897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>859029</xdr:colOff>
+      <xdr:colOff>855219</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>18256</xdr:rowOff>
+      <xdr:rowOff>22066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4222,25 +4231,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4262,135 +4271,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4412,91 +4421,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4518,112 +4527,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4631,6 +4640,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4640,13 +4656,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10536,7 +10545,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10633,7 +10642,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>422.49999999976717</v>
+        <v>432.99999999976717</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10652,7 +10661,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1120.5000000002328</v>
+        <v>1110.0000000002328</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -13296,51 +13305,87 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="82" t="str">
+      <c r="B101" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E101" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="36" t="str">
+        <v>210.00000000349246</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I101" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.5000000000582077</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="82" t="str">
+      <c r="B102" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E102" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I102" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="82" t="str">
+      <c r="B103" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E103" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="36" t="str">
+        <v>239.99999999650754</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I103" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.9999999999417923</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.3">
@@ -14923,7 +14968,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>422.49999999976717</v>
+        <v>432.99999999976717</v>
       </c>
     </row>
   </sheetData>
@@ -78595,9 +78640,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78830,19 +78878,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78867,9 +78911,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42835DD-1C5C-4AE0-A6C1-F536F4ADE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD8A521-45F7-4C8C-A841-899BB458D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="66105" yWindow="540" windowWidth="28800" windowHeight="15285" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11224" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11242" uniqueCount="494">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1644,6 +1644,15 @@
   </si>
   <si>
     <t>11/02/2024</t>
+  </si>
+  <si>
+    <t>12/02/2024</t>
+  </si>
+  <si>
+    <t>13/02/2024</t>
+  </si>
+  <si>
+    <t>18/02/2024</t>
   </si>
 </sst>
 </file>
@@ -3706,9 +3715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>322899</xdr:colOff>
+      <xdr:colOff>326709</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>56039</xdr:rowOff>
+      <xdr:rowOff>59849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3755,9 +3764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2074547</xdr:colOff>
+      <xdr:colOff>2078357</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>98584</xdr:rowOff>
+      <xdr:rowOff>94774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3811,9 +3820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>327184</xdr:colOff>
+      <xdr:colOff>323374</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>131850</xdr:rowOff>
+      <xdr:rowOff>135660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3854,9 +3863,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1579563</xdr:colOff>
+      <xdr:colOff>1583373</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>136295</xdr:rowOff>
+      <xdr:rowOff>132485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3897,9 +3906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>855219</xdr:colOff>
+      <xdr:colOff>859029</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>22066</xdr:rowOff>
+      <xdr:rowOff>18256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10545,7 +10554,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10642,7 +10651,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>432.99999999976717</v>
+        <v>448.99999999970896</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10661,7 +10670,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1110.0000000002328</v>
+        <v>1094.000000000291</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -13389,51 +13398,87 @@
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="82" t="str">
+      <c r="B104" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E104" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I104" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="82" t="str">
+      <c r="B105" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E105" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="36" t="str">
+        <v>360</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I105" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="82" t="str">
+      <c r="B106" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E106" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="36" t="str">
+        <v>419.99999999650754</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I106" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.9999999999417923</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
@@ -14968,7 +15013,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>432.99999999976717</v>
+        <v>448.99999999970896</v>
       </c>
     </row>
   </sheetData>

--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD8A521-45F7-4C8C-A841-899BB458D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE17E0F-6593-4066-AE4A-B07B8234FC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66105" yWindow="540" windowWidth="28800" windowHeight="15285" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67050" yWindow="1980" windowWidth="28800" windowHeight="15285" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11242" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11260" uniqueCount="497">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1654,6 +1654,15 @@
   <si>
     <t>18/02/2024</t>
   </si>
+  <si>
+    <t>21/02/2024</t>
+  </si>
+  <si>
+    <t>22/02/2024</t>
+  </si>
+  <si>
+    <t>22/2/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -2456,11 +2465,45 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2487,40 +2530,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3715,9 +3724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>326709</xdr:colOff>
+      <xdr:colOff>322899</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>59849</xdr:rowOff>
+      <xdr:rowOff>56039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3764,9 +3773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2078357</xdr:colOff>
+      <xdr:colOff>2074547</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>94774</xdr:rowOff>
+      <xdr:rowOff>98584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3820,9 +3829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323374</xdr:colOff>
+      <xdr:colOff>327184</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>135660</xdr:rowOff>
+      <xdr:rowOff>131850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3863,9 +3872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1583373</xdr:colOff>
+      <xdr:colOff>1579563</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>132485</xdr:rowOff>
+      <xdr:rowOff>136295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3906,9 +3915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>859029</xdr:colOff>
+      <xdr:colOff>855219</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>18256</xdr:rowOff>
+      <xdr:rowOff>22066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4240,25 +4249,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="109"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4280,135 +4289,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="B9" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4430,91 +4439,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4536,112 +4545,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4649,13 +4658,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4665,6 +4667,13 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10554,7 +10563,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10651,7 +10660,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>448.99999999970896</v>
+        <v>459.99999999976717</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10670,7 +10679,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1094.000000000291</v>
+        <v>1083.0000000002328</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -13482,51 +13491,87 @@
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="82" t="str">
+      <c r="B107" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E107" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I107" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="82" t="str">
+      <c r="B108" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E108" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I108" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="82" t="str">
+      <c r="B109" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E109" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="36" t="str">
+        <v>300.00000000349246</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I109" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5.0000000000582077</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
@@ -15013,7 +15058,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>448.99999999970896</v>
+        <v>459.99999999976717</v>
       </c>
     </row>
   </sheetData>
@@ -78685,12 +78730,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78923,15 +78965,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78956,10 +79002,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE17E0F-6593-4066-AE4A-B07B8234FC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F51544-262A-4604-9407-0EE366AECA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67050" yWindow="1980" windowWidth="28800" windowHeight="15285" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11260" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11266" uniqueCount="497">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1661,7 +1661,7 @@
     <t>22/02/2024</t>
   </si>
   <si>
-    <t>22/2/2024</t>
+    <t>26/02/2024</t>
   </si>
 </sst>
 </file>
@@ -2465,45 +2465,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2530,6 +2496,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3724,9 +3724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>322899</xdr:colOff>
+      <xdr:colOff>326709</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>56039</xdr:rowOff>
+      <xdr:rowOff>59849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3773,9 +3773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2074547</xdr:colOff>
+      <xdr:colOff>2078357</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>98584</xdr:rowOff>
+      <xdr:rowOff>94774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3829,9 +3829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>327184</xdr:colOff>
+      <xdr:colOff>323374</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>131850</xdr:rowOff>
+      <xdr:rowOff>135660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3872,9 +3872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1579563</xdr:colOff>
+      <xdr:colOff>1583373</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>136295</xdr:rowOff>
+      <xdr:rowOff>132485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3915,9 +3915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>855219</xdr:colOff>
+      <xdr:colOff>859029</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>22066</xdr:rowOff>
+      <xdr:rowOff>18256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4249,25 +4249,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4289,135 +4289,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4439,91 +4439,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4545,112 +4545,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4658,6 +4658,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4667,13 +4674,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10563,7 +10563,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>459.99999999976717</v>
+        <v>463.99999999970896</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1083.0000000002328</v>
+        <v>1079.000000000291</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -13548,7 +13548,7 @@
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>359</v>
@@ -13575,19 +13575,31 @@
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="82" t="str">
+      <c r="B110" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E110" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="36" t="str">
+        <v>239.99999999650754</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I110" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.9999999999417923</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.3">
@@ -15058,7 +15070,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>459.99999999976717</v>
+        <v>463.99999999970896</v>
       </c>
     </row>
   </sheetData>
@@ -78730,9 +78742,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78965,19 +78980,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -79002,9 +79013,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2376692-1DF2-49FC-8EDE-A42C9CFDAD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37FE58-9DFD-43B7-9BC4-63C6800F0AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26496" yWindow="3456" windowWidth="23040" windowHeight="12120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11296" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11314" uniqueCount="505">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1678,6 +1678,15 @@
   <si>
     <t>09/03/2024</t>
   </si>
+  <si>
+    <t>13/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>19/03/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -2480,11 +2489,45 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2511,40 +2554,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4264,25 +4273,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="109"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4304,135 +4313,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="B9" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4454,91 +4463,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4560,112 +4569,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4673,13 +4682,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4689,6 +4691,13 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10578,7 +10587,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10675,7 +10684,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10694,7 +10703,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -13758,51 +13767,87 @@
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="82" t="str">
+      <c r="B116" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E116" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="36" t="str">
+        <v>300.00000000349246</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I116" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5.0000000000582077</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="82" t="str">
+      <c r="B117" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E117" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="36" t="str">
+        <v>239.99999999650754</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I117" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.9999999999417923</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="82" t="str">
+      <c r="B118" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E118" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="36" t="str">
+        <v>360</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I118" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
@@ -15145,7 +15190,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -78817,12 +78862,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79055,15 +79097,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -79088,10 +79134,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37FE58-9DFD-43B7-9BC4-63C6800F0AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10E47A-30FD-455D-A482-20E0AC355D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11314" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11326" uniqueCount="507">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1687,6 +1687,12 @@
   <si>
     <t>19/03/2024</t>
   </si>
+  <si>
+    <t>31/03/2024</t>
+  </si>
+  <si>
+    <t>01/04/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -2489,45 +2495,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2554,6 +2526,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4273,25 +4279,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4313,135 +4319,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4463,91 +4469,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4569,112 +4575,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4682,6 +4688,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4691,13 +4704,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10587,7 +10593,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10684,7 +10690,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>507</v>
+        <v>518.49999999994179</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10703,7 +10709,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1036</v>
+        <v>1024.5000000000582</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -13851,35 +13857,59 @@
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="82" t="str">
+      <c r="B119" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E119" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="36" t="str">
+        <v>509.99999999650754</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I119" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.4999999999417923</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="82" t="str">
+      <c r="B120" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E120" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I120" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.3">
@@ -15190,7 +15220,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>507</v>
+        <v>518.49999999994179</v>
       </c>
     </row>
   </sheetData>
@@ -78862,9 +78892,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79097,19 +79130,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -79134,9 +79163,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10E47A-30FD-455D-A482-20E0AC355D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE36545-0E7F-4D60-A2EA-52F016E0C548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16824" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="4" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11326" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11362" uniqueCount="513">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1693,6 +1693,24 @@
   <si>
     <t>01/04/2024</t>
   </si>
+  <si>
+    <t>04/04/2024</t>
+  </si>
+  <si>
+    <t>07/04/2024</t>
+  </si>
+  <si>
+    <t>11/04/2024</t>
+  </si>
+  <si>
+    <t>14/04/2024</t>
+  </si>
+  <si>
+    <t>18/04/2024</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -2495,11 +2513,45 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2526,40 +2578,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4279,25 +4297,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="109"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4319,135 +4337,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="B9" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4469,91 +4487,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4575,112 +4593,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4688,13 +4706,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4704,6 +4715,13 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10593,7 +10611,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10690,7 +10708,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>518.49999999994179</v>
+        <v>555</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10709,7 +10727,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>1024.5000000000582</v>
+        <v>988</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -13913,99 +13931,171 @@
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="82" t="str">
+      <c r="B121" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E121" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="36" t="str">
+        <v>300.00000000349246</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I121" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5.0000000000582077</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="82" t="str">
+      <c r="B122" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E122" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="36" t="str">
+        <v>270</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I122" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="82" t="str">
+      <c r="B123" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E123" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="36" t="str">
+        <v>419.99999999650754</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I123" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.9999999999417923</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="82" t="str">
+      <c r="B124" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E124" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="36" t="str">
+        <v>330.00000000698492</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I124" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5.5000000001164153</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="82" t="str">
+      <c r="B125" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E125" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="36" t="str">
+        <v>509.99999999650754</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I125" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.4999999999417923</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="82" t="str">
+      <c r="B126" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E126" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="36" t="str">
+        <v>360</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I126" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.3">
@@ -15220,7 +15310,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>518.49999999994179</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -78892,12 +78982,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79130,15 +79217,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -79163,10 +79254,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874C401-6935-4504-B1DB-38DB2D64BF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5E6B2F-CF43-4FB3-BE63-4908ACF84AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11416" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11452" uniqueCount="527">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1738,6 +1738,21 @@
   <si>
     <t>13/05/2024</t>
   </si>
+  <si>
+    <t>16/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>25/05/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -2540,45 +2555,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2605,6 +2586,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4324,25 +4339,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4364,135 +4379,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4514,91 +4529,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4620,112 +4635,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4733,6 +4748,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4742,13 +4764,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10638,7 +10653,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10735,7 +10750,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>604.99999999970896</v>
+        <v>638.99999999965075</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10754,7 +10769,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>938.00000000029104</v>
+        <v>904.00000000034925</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -14378,99 +14393,171 @@
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="82" t="str">
+      <c r="B136" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E136" s="82">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="36" t="str">
+        <v>509.99999999650754</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I136" s="36">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.4999999999417923</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="82" t="str">
+      <c r="B137" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E137" s="82">
         <f t="shared" ref="E137:E200" si="4">IFERROR((VALUE(CONCATENATE(B137," ",D137,":00"))-VALUE(CONCATENATE(B137," ",C137,":00")))*24*60,"")</f>
-        <v/>
-      </c>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="36" t="str">
+        <v>210.00000000349246</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I137" s="36">
         <f t="shared" ref="I137:I200" si="5">IFERROR(E137/60,"")</f>
-        <v/>
+        <v>3.5000000000582077</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="82" t="str">
+      <c r="B138" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E138" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="36" t="str">
+        <v>509.99999999650754</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I138" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8.4999999999417923</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="82" t="str">
+      <c r="B139" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E139" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="36" t="str">
+        <v>210.00000000349246</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I139" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3.5000000000582077</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="82" t="str">
+      <c r="B140" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E140" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="36" t="str">
+        <v>360</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I140" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="82" t="str">
+      <c r="B141" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E141" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="36" t="str">
+        <v>239.99999999650754</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I141" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3.9999999999417923</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.3">
@@ -15445,7 +15532,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>604.99999999970896</v>
+        <v>638.99999999965075</v>
       </c>
     </row>
   </sheetData>
@@ -79117,9 +79204,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79352,19 +79442,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -79389,9 +79475,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5E6B2F-CF43-4FB3-BE63-4908ACF84AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F35CCE-ADC2-41AF-9F41-11F15ED65EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11452" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11470" uniqueCount="530">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1753,6 +1753,15 @@
   <si>
     <t>25/05/2024</t>
   </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -2555,11 +2564,45 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2586,40 +2629,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4339,25 +4348,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="109"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4379,135 +4388,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
+      <c r="B9" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4529,91 +4538,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4635,112 +4644,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4748,13 +4757,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4764,6 +4766,13 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10653,7 +10662,7 @@
   <dimension ref="B1:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10750,7 +10759,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>638.99999999965075</v>
+        <v>652.99999999970896</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10769,7 +10778,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>904.00000000034925</v>
+        <v>890.00000000029104</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -14561,51 +14570,87 @@
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="82" t="str">
+      <c r="B142" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E142" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="36" t="str">
+        <v>419.99999999650754</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I142" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6.9999999999417923</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="82" t="str">
+      <c r="B143" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E143" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="36" t="str">
+        <v>210.00000000349246</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I143" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3.5000000000582077</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="82" t="str">
+      <c r="B144" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E144" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="36" t="str">
+        <v>210.00000000349246</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I144" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3.5000000000582077</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.3">
@@ -15532,7 +15577,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>638.99999999965075</v>
+        <v>652.99999999970896</v>
       </c>
     </row>
   </sheetData>
@@ -79204,12 +79249,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79442,15 +79484,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -79475,10 +79521,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Off The Job Calculator - Joshua Morton.xlsx
+++ b/Off The Job Calculator - Joshua Morton.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshMorton\Documents\_Degree\DegreePub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F35CCE-ADC2-41AF-9F41-11F15ED65EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71760AA0-980F-4930-B771-D4FF925B15B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11470" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11518" uniqueCount="537">
   <si>
     <t>How to complete this calculator</t>
   </si>
@@ -1762,6 +1762,27 @@
   <si>
     <t>30/05/2024</t>
   </si>
+  <si>
+    <t>04/06/2024</t>
+  </si>
+  <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>18/06/2024</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>26/06/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -2564,45 +2585,11 @@
     <xf numFmtId="49" fontId="15" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2629,6 +2616,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4348,25 +4369,25 @@
   <sheetData>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:18" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -4388,135 +4409,135 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
     </row>
     <row r="10" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" spans="1:18" ht="31.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="112"/>
     </row>
     <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="1:18" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -4538,91 +4559,91 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
     </row>
     <row r="19" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="109"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
@@ -4644,112 +4665,112 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
     </row>
     <row r="24" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R26" s="2"/>
@@ -4757,6 +4778,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="C1AqtvqKb8C414s7lEoNpdJ58hWR+bz87IU733aDeZMTPECU7crf3JYNQw8QcQksZnMw+dDwa8mNa2TsA5r9Aw==" saltValue="4/m+8HEyihP2IsZnh8JafA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B13:R13"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B25:R25"/>
@@ -4766,13 +4794,6 @@
     <mergeCell ref="B18:R18"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10661,8 +10682,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H145" sqref="H145"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10759,7 +10780,7 @@
       </c>
       <c r="J4" s="41">
         <f>I202</f>
-        <v>652.99999999970896</v>
+        <v>701.99999999965075</v>
       </c>
       <c r="L4" s="133"/>
       <c r="R4" t="s">
@@ -10778,7 +10799,7 @@
       </c>
       <c r="J5" s="41">
         <f>J3-J4</f>
-        <v>890.00000000029104</v>
+        <v>841.00000000034925</v>
       </c>
       <c r="L5" s="133"/>
       <c r="M5" s="32"/>
@@ -14654,131 +14675,227 @@
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="82" t="str">
+      <c r="B145" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E145" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="36" t="str">
+        <v>509.99999999650754</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I145" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8.4999999999417923</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="82" t="str">
+      <c r="B146" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E146" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="36" t="str">
+        <v>210.00000000349246</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I146" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3.5000000000582077</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="82" t="str">
+      <c r="B147" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E147" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="36" t="str">
+        <v>270</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I147" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="82" t="str">
+      <c r="B148" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E148" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="36" t="str">
+        <v>180</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I148" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="82" t="str">
+      <c r="B149" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E149" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="36" t="str">
+        <v>480.00000000349246</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I149" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>8.0000000000582077</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="82" t="str">
+      <c r="B150" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E150" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="36" t="str">
+        <v>360</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I150" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="82" t="str">
+      <c r="B151" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E151" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="36" t="str">
+        <v>329.99999999650754</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I151" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5.4999999999417923</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="82" t="str">
+      <c r="B152" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E152" s="82">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="36" t="str">
+        <v>599.99999999650754</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I152" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9.9999999999417923</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.3">
@@ -15577,7 +15694,7 @@
       <c r="H202" s="35"/>
       <c r="I202" s="83">
         <f>SUM($I$8:I201)</f>
-        <v>652.99999999970896</v>
+        <v>701.99999999965075</v>
       </c>
     </row>
   </sheetData>
@@ -79249,9 +79366,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79484,19 +79604,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -79521,9 +79637,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5ECEC2-D611-47E4-BF40-446047C7D564}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E15B46B-DB71-477E-9F64-462B1A7F47C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>